--- a/PRT_sankey_v2.xlsx
+++ b/PRT_sankey_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TV128\Documents\PRT\prt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF7BF6-44FF-4408-BDF2-4DCE5C433E40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044C548-6B7E-453A-8E11-B7422C7A7F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6765" xr2:uid="{E29C94FD-312E-4A08-B006-DD577203C0BB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="114">
   <si>
     <t>reporting time</t>
   </si>
@@ -351,16 +351,7 @@
     <t>human involvement characteristics</t>
   </si>
   <si>
-    <t>crime chacteristics</t>
-  </si>
-  <si>
-    <t>crime characteristics</t>
-  </si>
-  <si>
     <t>travel distance</t>
-  </si>
-  <si>
-    <t>crime characterisitcs</t>
   </si>
   <si>
     <t>Subcategory</t>
@@ -373,6 +364,9 @@
   </si>
   <si>
     <t>reporting time;dispatch time;travel time</t>
+  </si>
+  <si>
+    <t>crime chacteristic</t>
   </si>
 </sst>
 </file>
@@ -995,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87D9D8B-F420-4577-B915-2E8E4D234745}">
   <dimension ref="A1:P549"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="E556" sqref="E556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,13 +1016,13 @@
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1061,7 +1055,7 @@
         <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1095,7 +1089,7 @@
         <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1125,7 +1119,7 @@
         <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1155,7 +1149,7 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1185,7 +1179,7 @@
         <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1215,7 +1209,7 @@
         <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1245,7 +1239,7 @@
         <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1275,7 +1269,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1305,7 +1299,7 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1335,7 +1329,7 @@
         <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1365,7 +1359,7 @@
         <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1395,7 +1389,7 @@
         <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1425,7 +1419,7 @@
         <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1455,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1485,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1515,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1725,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1755,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1785,7 +1779,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1815,7 +1809,7 @@
         <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1845,7 +1839,7 @@
         <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1875,7 +1869,7 @@
         <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1905,7 +1899,7 @@
         <v>105</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1935,7 +1929,7 @@
         <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1965,7 +1959,7 @@
         <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1995,7 +1989,7 @@
         <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2025,7 +2019,7 @@
         <v>107</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2055,7 +2049,7 @@
         <v>107</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2085,7 +2079,7 @@
         <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2115,7 +2109,7 @@
         <v>107</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2145,7 +2139,7 @@
         <v>107</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2175,7 +2169,7 @@
         <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2205,7 +2199,7 @@
         <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2235,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2505,7 +2499,7 @@
         <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2535,7 +2529,7 @@
         <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2565,7 +2559,7 @@
         <v>106</v>
       </c>
       <c r="F52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2595,7 +2589,7 @@
         <v>106</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2625,7 +2619,7 @@
         <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2655,7 +2649,7 @@
         <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2685,7 +2679,7 @@
         <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2715,7 +2709,7 @@
         <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2745,7 +2739,7 @@
         <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3045,7 +3039,7 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G68" s="4"/>
       <c r="I68">
@@ -3076,7 +3070,7 @@
         <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3106,7 +3100,7 @@
         <v>107</v>
       </c>
       <c r="F70" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3136,7 +3130,7 @@
         <v>107</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3166,7 +3160,7 @@
         <v>105</v>
       </c>
       <c r="F72" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3196,7 +3190,7 @@
         <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3226,7 +3220,7 @@
         <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3256,7 +3250,7 @@
         <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3283,10 +3277,10 @@
         <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3643,7 +3637,7 @@
         <v>38</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F88" t="s">
         <v>2</v>
@@ -3946,7 +3940,7 @@
         <v>107</v>
       </c>
       <c r="F98" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -3976,7 +3970,7 @@
         <v>107</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4006,7 +4000,7 @@
         <v>107</v>
       </c>
       <c r="F100" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4036,7 +4030,7 @@
         <v>105</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -4066,7 +4060,7 @@
         <v>106</v>
       </c>
       <c r="F102" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4096,7 +4090,7 @@
         <v>105</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4126,7 +4120,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -4156,7 +4150,7 @@
         <v>106</v>
       </c>
       <c r="F105" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4186,7 +4180,7 @@
         <v>106</v>
       </c>
       <c r="F106" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -4216,7 +4210,7 @@
         <v>107</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -4246,7 +4240,7 @@
         <v>106</v>
       </c>
       <c r="F108" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -4273,7 +4267,7 @@
         <v>66</v>
       </c>
       <c r="E109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F109" t="s">
         <v>2</v>
@@ -4366,7 +4360,7 @@
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4396,7 +4390,7 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4426,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -4456,7 +4450,7 @@
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -4486,7 +4480,7 @@
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -4516,7 +4510,7 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4546,7 +4540,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -4576,7 +4570,7 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4606,7 +4600,7 @@
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4636,7 +4630,7 @@
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -4666,7 +4660,7 @@
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -4696,7 +4690,7 @@
         <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -4726,7 +4720,7 @@
         <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -4756,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -4786,7 +4780,7 @@
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -4816,7 +4810,7 @@
         <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -4846,7 +4840,7 @@
         <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -4876,7 +4870,7 @@
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -4906,7 +4900,7 @@
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -4936,7 +4930,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -4966,7 +4960,7 @@
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -4996,7 +4990,7 @@
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5026,7 +5020,7 @@
         <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5056,7 +5050,7 @@
         <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5086,7 +5080,7 @@
         <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -5116,7 +5110,7 @@
         <v>14</v>
       </c>
       <c r="F137" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -5146,7 +5140,7 @@
         <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -5176,7 +5170,7 @@
         <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5206,7 +5200,7 @@
         <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -5236,7 +5230,7 @@
         <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -5266,7 +5260,7 @@
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -5296,7 +5290,7 @@
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -5326,7 +5320,7 @@
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -5356,7 +5350,7 @@
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -5386,7 +5380,7 @@
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -5416,7 +5410,7 @@
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -5446,7 +5440,7 @@
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -5476,7 +5470,7 @@
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -5506,7 +5500,7 @@
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -5536,7 +5530,7 @@
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5566,7 +5560,7 @@
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -5596,7 +5590,7 @@
         <v>105</v>
       </c>
       <c r="F153" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5626,7 +5620,7 @@
         <v>105</v>
       </c>
       <c r="F154" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -5656,7 +5650,7 @@
         <v>105</v>
       </c>
       <c r="F155" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -5686,7 +5680,7 @@
         <v>105</v>
       </c>
       <c r="F156" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -5716,7 +5710,7 @@
         <v>105</v>
       </c>
       <c r="F157" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -5746,7 +5740,7 @@
         <v>105</v>
       </c>
       <c r="F158" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -5776,7 +5770,7 @@
         <v>105</v>
       </c>
       <c r="F159" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -5806,7 +5800,7 @@
         <v>105</v>
       </c>
       <c r="F160" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -5836,7 +5830,7 @@
         <v>105</v>
       </c>
       <c r="F161" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -5866,7 +5860,7 @@
         <v>105</v>
       </c>
       <c r="F162" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -5896,7 +5890,7 @@
         <v>105</v>
       </c>
       <c r="F163" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -5926,7 +5920,7 @@
         <v>105</v>
       </c>
       <c r="F164" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -5956,7 +5950,7 @@
         <v>105</v>
       </c>
       <c r="F165" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -5986,7 +5980,7 @@
         <v>105</v>
       </c>
       <c r="F166" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -6016,7 +6010,7 @@
         <v>105</v>
       </c>
       <c r="F167" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -6046,7 +6040,7 @@
         <v>105</v>
       </c>
       <c r="F168" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -6076,7 +6070,7 @@
         <v>106</v>
       </c>
       <c r="F169" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -6106,7 +6100,7 @@
         <v>106</v>
       </c>
       <c r="F170" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -6136,7 +6130,7 @@
         <v>106</v>
       </c>
       <c r="F171" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -6166,7 +6160,7 @@
         <v>106</v>
       </c>
       <c r="F172" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -6196,7 +6190,7 @@
         <v>106</v>
       </c>
       <c r="F173" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -6226,7 +6220,7 @@
         <v>106</v>
       </c>
       <c r="F174" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -6256,7 +6250,7 @@
         <v>106</v>
       </c>
       <c r="F175" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -6286,7 +6280,7 @@
         <v>106</v>
       </c>
       <c r="F176" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -6316,7 +6310,7 @@
         <v>106</v>
       </c>
       <c r="F177" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -6346,7 +6340,7 @@
         <v>106</v>
       </c>
       <c r="F178" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -6376,7 +6370,7 @@
         <v>106</v>
       </c>
       <c r="F179" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -6406,7 +6400,7 @@
         <v>106</v>
       </c>
       <c r="F180" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -6436,7 +6430,7 @@
         <v>106</v>
       </c>
       <c r="F181" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -6466,7 +6460,7 @@
         <v>106</v>
       </c>
       <c r="F182" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -6496,7 +6490,7 @@
         <v>106</v>
       </c>
       <c r="F183" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -6526,7 +6520,7 @@
         <v>106</v>
       </c>
       <c r="F184" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -6556,7 +6550,7 @@
         <v>106</v>
       </c>
       <c r="F185" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -6586,7 +6580,7 @@
         <v>106</v>
       </c>
       <c r="F186" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -6616,7 +6610,7 @@
         <v>106</v>
       </c>
       <c r="F187" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -6646,7 +6640,7 @@
         <v>106</v>
       </c>
       <c r="F188" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -6676,7 +6670,7 @@
         <v>106</v>
       </c>
       <c r="F189" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -6706,7 +6700,7 @@
         <v>106</v>
       </c>
       <c r="F190" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -6736,7 +6730,7 @@
         <v>106</v>
       </c>
       <c r="F191" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -6766,7 +6760,7 @@
         <v>106</v>
       </c>
       <c r="F192" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8533,7 +8527,7 @@
         <v>46</v>
       </c>
       <c r="E251" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F251" t="s">
         <v>2</v>
@@ -8836,7 +8830,7 @@
         <v>107</v>
       </c>
       <c r="F261" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -8866,7 +8860,7 @@
         <v>107</v>
       </c>
       <c r="F262" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -8896,7 +8890,7 @@
         <v>107</v>
       </c>
       <c r="F263" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -8926,7 +8920,7 @@
         <v>105</v>
       </c>
       <c r="F264" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -8956,7 +8950,7 @@
         <v>106</v>
       </c>
       <c r="F265" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -8986,7 +8980,7 @@
         <v>106</v>
       </c>
       <c r="F266" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -9016,7 +9010,7 @@
         <v>106</v>
       </c>
       <c r="F267" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -9046,7 +9040,7 @@
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I268">
         <v>0</v>
@@ -9076,7 +9070,7 @@
         <v>107</v>
       </c>
       <c r="F269" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -9106,7 +9100,7 @@
         <v>107</v>
       </c>
       <c r="F270" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -9136,7 +9130,7 @@
         <v>107</v>
       </c>
       <c r="F271" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -9166,7 +9160,7 @@
         <v>105</v>
       </c>
       <c r="F272" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I272">
         <v>0</v>
@@ -9196,7 +9190,7 @@
         <v>106</v>
       </c>
       <c r="F273" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I273">
         <v>0</v>
@@ -9226,7 +9220,7 @@
         <v>106</v>
       </c>
       <c r="F274" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -9256,7 +9250,7 @@
         <v>106</v>
       </c>
       <c r="F275" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -9286,7 +9280,7 @@
         <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -9316,7 +9310,7 @@
         <v>107</v>
       </c>
       <c r="F277" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -9346,7 +9340,7 @@
         <v>107</v>
       </c>
       <c r="F278" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I278">
         <v>1</v>
@@ -9376,7 +9370,7 @@
         <v>107</v>
       </c>
       <c r="F279" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I279">
         <v>1</v>
@@ -9406,7 +9400,7 @@
         <v>107</v>
       </c>
       <c r="F280" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I280">
         <v>1</v>
@@ -9436,7 +9430,7 @@
         <v>107</v>
       </c>
       <c r="F281" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -9466,7 +9460,7 @@
         <v>107</v>
       </c>
       <c r="F282" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I282">
         <v>1</v>
@@ -9496,7 +9490,7 @@
         <v>107</v>
       </c>
       <c r="F283" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -9526,7 +9520,7 @@
         <v>107</v>
       </c>
       <c r="F284" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I284">
         <v>1</v>
@@ -10036,7 +10030,7 @@
         <v>105</v>
       </c>
       <c r="F301" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -10066,7 +10060,7 @@
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I302">
         <v>0</v>
@@ -10096,7 +10090,7 @@
         <v>14</v>
       </c>
       <c r="F303" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I303">
         <v>0</v>
@@ -10126,7 +10120,7 @@
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I304">
         <v>0</v>
@@ -10156,7 +10150,7 @@
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -10183,10 +10177,10 @@
         <v>50</v>
       </c>
       <c r="E306" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F306" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I306">
         <v>0</v>
@@ -10213,10 +10207,10 @@
         <v>51</v>
       </c>
       <c r="E307" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F307" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -10246,7 +10240,7 @@
         <v>106</v>
       </c>
       <c r="F308" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -10276,7 +10270,7 @@
         <v>106</v>
       </c>
       <c r="F309" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -10306,7 +10300,7 @@
         <v>106</v>
       </c>
       <c r="F310" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -10336,7 +10330,7 @@
         <v>51</v>
       </c>
       <c r="F311" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -10366,7 +10360,7 @@
         <v>105</v>
       </c>
       <c r="F312" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I312">
         <v>0</v>
@@ -10396,7 +10390,7 @@
         <v>107</v>
       </c>
       <c r="F313" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I313">
         <v>0</v>
@@ -10426,7 +10420,7 @@
         <v>107</v>
       </c>
       <c r="F314" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -10456,7 +10450,7 @@
         <v>105</v>
       </c>
       <c r="F315" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -10483,10 +10477,10 @@
         <v>39</v>
       </c>
       <c r="E316" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F316" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -10516,7 +10510,7 @@
         <v>105</v>
       </c>
       <c r="F317" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -10546,7 +10540,7 @@
         <v>105</v>
       </c>
       <c r="F318" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I318">
         <v>0</v>
@@ -10576,7 +10570,7 @@
         <v>105</v>
       </c>
       <c r="F319" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I319">
         <v>0</v>
@@ -10606,7 +10600,7 @@
         <v>105</v>
       </c>
       <c r="F320" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I320">
         <v>0</v>
@@ -10636,7 +10630,7 @@
         <v>106</v>
       </c>
       <c r="F321" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I321">
         <v>0</v>
@@ -10666,7 +10660,7 @@
         <v>105</v>
       </c>
       <c r="F322" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I322">
         <v>0</v>
@@ -10696,7 +10690,7 @@
         <v>105</v>
       </c>
       <c r="F323" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I323">
         <v>0</v>
@@ -10846,7 +10840,7 @@
         <v>105</v>
       </c>
       <c r="F328" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I328">
         <v>0</v>
@@ -10873,7 +10867,7 @@
         <v>39</v>
       </c>
       <c r="E329" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F329" t="s">
         <v>2</v>
@@ -10906,7 +10900,7 @@
         <v>105</v>
       </c>
       <c r="F330" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I330">
         <v>0</v>
@@ -11056,7 +11050,7 @@
         <v>11</v>
       </c>
       <c r="F335" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I335">
         <v>0</v>
@@ -11086,7 +11080,7 @@
         <v>51</v>
       </c>
       <c r="F336" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -11116,7 +11110,7 @@
         <v>106</v>
       </c>
       <c r="F337" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -11146,7 +11140,7 @@
         <v>106</v>
       </c>
       <c r="F338" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I338">
         <v>0</v>
@@ -11176,7 +11170,7 @@
         <v>106</v>
       </c>
       <c r="F339" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I339">
         <v>0</v>
@@ -11206,7 +11200,7 @@
         <v>107</v>
       </c>
       <c r="F340" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -11236,7 +11230,7 @@
         <v>107</v>
       </c>
       <c r="F341" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I341">
         <v>0</v>
@@ -11266,7 +11260,7 @@
         <v>107</v>
       </c>
       <c r="F342" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I342">
         <v>0</v>
@@ -11296,7 +11290,7 @@
         <v>107</v>
       </c>
       <c r="F343" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I343">
         <v>0</v>
@@ -11326,7 +11320,7 @@
         <v>107</v>
       </c>
       <c r="F344" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I344">
         <v>0</v>
@@ -11356,7 +11350,7 @@
         <v>107</v>
       </c>
       <c r="F345" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I345">
         <v>0</v>
@@ -11386,7 +11380,7 @@
         <v>107</v>
       </c>
       <c r="F346" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -11416,7 +11410,7 @@
         <v>107</v>
       </c>
       <c r="F347" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I347">
         <v>0</v>
@@ -11446,7 +11440,7 @@
         <v>105</v>
       </c>
       <c r="F348" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -12493,7 +12487,7 @@
         <v>38</v>
       </c>
       <c r="E383" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F383" t="s">
         <v>2</v>
@@ -12763,7 +12757,7 @@
         <v>38</v>
       </c>
       <c r="E392" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F392" t="s">
         <v>0</v>
@@ -12793,7 +12787,7 @@
         <v>38</v>
       </c>
       <c r="E393" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F393" t="s">
         <v>1</v>
@@ -12823,7 +12817,7 @@
         <v>38</v>
       </c>
       <c r="E394" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F394" t="s">
         <v>2</v>
@@ -12883,7 +12877,7 @@
         <v>38</v>
       </c>
       <c r="E396" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F396" t="s">
         <v>2</v>
@@ -12943,7 +12937,7 @@
         <v>38</v>
       </c>
       <c r="E398" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F398" t="s">
         <v>0</v>
@@ -12973,7 +12967,7 @@
         <v>38</v>
       </c>
       <c r="E399" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F399" t="s">
         <v>0</v>
@@ -13003,7 +12997,7 @@
         <v>38</v>
       </c>
       <c r="E400" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F400" t="s">
         <v>0</v>
@@ -13753,7 +13747,7 @@
         <v>38</v>
       </c>
       <c r="E425" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F425" t="s">
         <v>0</v>
@@ -13783,7 +13777,7 @@
         <v>38</v>
       </c>
       <c r="E426" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F426" t="s">
         <v>0</v>
@@ -13813,7 +13807,7 @@
         <v>38</v>
       </c>
       <c r="E427" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F427" t="s">
         <v>0</v>
@@ -16393,7 +16387,7 @@
         <v>38</v>
       </c>
       <c r="E513" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F513" t="s">
         <v>0</v>
@@ -16423,7 +16417,7 @@
         <v>38</v>
       </c>
       <c r="E514" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F514" t="s">
         <v>1</v>
@@ -16453,7 +16447,7 @@
         <v>38</v>
       </c>
       <c r="E515" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F515" t="s">
         <v>2</v>

--- a/PRT_sankey_v2.xlsx
+++ b/PRT_sankey_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TV128\Documents\PRT\prt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044C548-6B7E-453A-8E11-B7422C7A7F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FBF3FA-B252-4FC8-A083-F5A57CD3764E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6765" xr2:uid="{E29C94FD-312E-4A08-B006-DD577203C0BB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="113">
   <si>
     <t>reporting time</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>reporting time;dispatch time;travel time</t>
-  </si>
-  <si>
-    <t>crime chacteristic</t>
   </si>
 </sst>
 </file>
@@ -989,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87D9D8B-F420-4577-B915-2E8E4D234745}">
   <dimension ref="A1:P549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="E556" sqref="E556"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,7 +3634,7 @@
         <v>38</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F88" t="s">
         <v>2</v>
